--- a/currentbuild/ValueSet-lmdi-medicationadministrationstatus.xlsx
+++ b/currentbuild/ValueSet-lmdi-medicationadministrationstatus.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.2</t>
+    <t>0.9.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/ValueSet-lmdi-medicationadministrationstatus.xlsx
+++ b/currentbuild/ValueSet-lmdi-medicationadministrationstatus.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.4</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,16 +66,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Folkehelseinstituttet</t>
+    <t>Folkehelseinstituttet (FHI)</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Folkehelseinstituttet (https://www.fhi.no)</t>
-  </si>
-  <si>
-    <t>Legemiddelregisteret (legemiddelregisteret@fhi.no)</t>
+    <t>Folkehelseinstituttet (FHI) (https://www.fhi.no)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -257,7 +254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -349,27 +346,25 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s" s="2">
         <v>24</v>
       </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
@@ -381,14 +376,8 @@
       <c r="A15" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="B15" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -410,42 +399,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>35</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/currentbuild/ValueSet-lmdi-medicationadministrationstatus.xlsx
+++ b/currentbuild/ValueSet-lmdi-medicationadministrationstatus.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.9.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,13 +66,16 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Folkehelseinstituttet (FHI)</t>
+    <t>Folkehelseinstituttet</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Folkehelseinstituttet (FHI) (https://www.fhi.no)</t>
+    <t>Folkehelseinstituttet (https://www.fhi.no)</t>
+  </si>
+  <si>
+    <t>Legemiddelregisteret (legemiddelregisteret@fhi.no)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -254,7 +257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -346,25 +349,27 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>22</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
@@ -376,8 +381,14 @@
       <c r="A15" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
         <v>27</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -399,42 +410,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/currentbuild/ValueSet-lmdi-medicationadministrationstatus.xlsx
+++ b/currentbuild/ValueSet-lmdi-medicationadministrationstatus.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.4</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05</t>
+    <t>2025-03-10</t>
   </si>
   <si>
     <t>Publisher</t>
